--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/39.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/39.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1101100308837638</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.506291552214949</v>
+        <v>-1.538757629838248</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2322025578813225</v>
+        <v>0.2281063306162825</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1193214886321757</v>
+        <v>0.1165097543123671</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1352584740187736</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.398683857136966</v>
+        <v>-1.43528641678997</v>
       </c>
       <c r="F3" t="n">
-        <v>0.206213227924411</v>
+        <v>0.1971912812739537</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09541381794500529</v>
+        <v>0.09361272218656827</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1739435060832793</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.37738237750154</v>
+        <v>-1.432734508678456</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2026159157729509</v>
+        <v>0.1863127360834753</v>
       </c>
       <c r="G4" t="n">
-        <v>0.134756141277962</v>
+        <v>0.130529390988098</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2152992569268136</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.454378763734214</v>
+        <v>-1.508805645244504</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2347520263101294</v>
+        <v>0.214144026484166</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08428520527706022</v>
+        <v>0.08527327677339208</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2489833102398911</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.45587245947157</v>
+        <v>-1.502469179333769</v>
       </c>
       <c r="F6" t="n">
-        <v>0.345028734269562</v>
+        <v>0.3207081472842332</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09980097737285407</v>
+        <v>0.09691422280980551</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2677994778122533</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.408216917314538</v>
+        <v>-1.426864022164756</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3991549248862149</v>
+        <v>0.3774447983973678</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02714783627930216</v>
+        <v>0.02294304313380105</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2724540827006554</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.144038924991268</v>
+        <v>-1.147814333980338</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4336703359833875</v>
+        <v>0.4276979927166705</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02883739256007883</v>
+        <v>-0.02815489132279775</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2644931161710964</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5688562803873953</v>
+        <v>-0.5678480815087308</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3692999176800742</v>
+        <v>0.3755107399313997</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02389337555435907</v>
+        <v>-0.02389032595097533</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.244010938517051</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03657599010047364</v>
+        <v>0.02596398024573418</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3182763935460386</v>
+        <v>0.3248397499485245</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06283132147863184</v>
+        <v>-0.05919924384859716</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.203236440386876</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8255858454000335</v>
+        <v>0.7832134361449925</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1235220123329395</v>
+        <v>0.1289405476251693</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.004253319842394858</v>
+        <v>-0.01270682042212294</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1334245923248406</v>
       </c>
       <c r="E12" t="n">
-        <v>1.605309658396104</v>
+        <v>1.543341717638502</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2652981496492102</v>
+        <v>-0.2595929516389088</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1006341290172919</v>
+        <v>0.09175978317060768</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.02992680656822419</v>
       </c>
       <c r="E13" t="n">
-        <v>2.351930636582351</v>
+        <v>2.281532372230737</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6320025878924753</v>
+        <v>-0.6284241832819945</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2232458727432773</v>
+        <v>0.2146569697733111</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1005671586584226</v>
       </c>
       <c r="E14" t="n">
-        <v>3.044954225378685</v>
+        <v>2.956427898672765</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.180605499324344</v>
+        <v>-1.1629873306558</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3963547790592646</v>
+        <v>0.3862349751906608</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2439445181600119</v>
       </c>
       <c r="E15" t="n">
-        <v>3.748541640296296</v>
+        <v>3.64928070967961</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.774460865446858</v>
+        <v>-1.752498841718514</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5465123703092224</v>
+        <v>0.5232981794315146</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3835867181448381</v>
       </c>
       <c r="E16" t="n">
-        <v>4.358870963897775</v>
+        <v>4.263717239118311</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.285125490943644</v>
+        <v>-2.260025425333431</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7262084199340888</v>
+        <v>0.7069440753590014</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5105932757971481</v>
       </c>
       <c r="E17" t="n">
-        <v>4.971123977313717</v>
+        <v>4.871622737950393</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.830975220440672</v>
+        <v>-2.814690338371499</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9448247277836022</v>
+        <v>0.9143293038668761</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6261002283021041</v>
       </c>
       <c r="E18" t="n">
-        <v>5.324697433307274</v>
+        <v>5.242294710195904</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.373152007622323</v>
+        <v>-3.365597530120122</v>
       </c>
       <c r="G18" t="n">
-        <v>1.137941471979633</v>
+        <v>1.104709333986338</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7319665513669319</v>
       </c>
       <c r="E19" t="n">
-        <v>5.640494842265762</v>
+        <v>5.555519473739869</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.882214981421969</v>
+        <v>-3.874969123782202</v>
       </c>
       <c r="G19" t="n">
-        <v>1.368226172296013</v>
+        <v>1.346242191423306</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8277099523684495</v>
       </c>
       <c r="E20" t="n">
-        <v>5.989281640788199</v>
+        <v>5.90755592962802</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.387687657157937</v>
+        <v>-4.380715958862369</v>
       </c>
       <c r="G20" t="n">
-        <v>1.536772871949925</v>
+        <v>1.521025329996967</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9099681052092555</v>
       </c>
       <c r="E21" t="n">
-        <v>6.195454346990699</v>
+        <v>6.131080879084002</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.699748692050667</v>
+        <v>-4.692745887800584</v>
       </c>
       <c r="G21" t="n">
-        <v>1.680612904830127</v>
+        <v>1.659954281587993</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9780839402560617</v>
       </c>
       <c r="E22" t="n">
-        <v>6.323039993835565</v>
+        <v>6.275195376268741</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.984504493126401</v>
+        <v>-4.965459110074266</v>
       </c>
       <c r="G22" t="n">
-        <v>1.881866600774653</v>
+        <v>1.857136757015226</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.031824525888537</v>
       </c>
       <c r="E23" t="n">
-        <v>6.391019312783197</v>
+        <v>6.357313876344746</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.254195558446797</v>
+        <v>-5.21177557537897</v>
       </c>
       <c r="G23" t="n">
-        <v>1.984825480454462</v>
+        <v>1.96640221649261</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.072817270117235</v>
       </c>
       <c r="E24" t="n">
-        <v>6.479527341868814</v>
+        <v>6.454405929034915</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.37619250213062</v>
+        <v>-5.3279044722318</v>
       </c>
       <c r="G24" t="n">
-        <v>2.08222371332436</v>
+        <v>2.052738927969005</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.100267970932419</v>
       </c>
       <c r="E25" t="n">
-        <v>6.480660574486212</v>
+        <v>6.470156520591257</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.40461663542911</v>
+        <v>-5.343211041535469</v>
       </c>
       <c r="G25" t="n">
-        <v>2.140962124098582</v>
+        <v>2.1093481056607</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.114174068899135</v>
       </c>
       <c r="E26" t="n">
-        <v>6.538786014980302</v>
+        <v>6.528100204723676</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.399163029697967</v>
+        <v>-5.340018106792693</v>
       </c>
       <c r="G26" t="n">
-        <v>2.171094035291966</v>
+        <v>2.133599161688879</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.114182455638686</v>
       </c>
       <c r="E27" t="n">
-        <v>6.418685314680489</v>
+        <v>6.419563600455006</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.38450694079605</v>
+        <v>-5.33676082541852</v>
       </c>
       <c r="G27" t="n">
-        <v>2.177876353217404</v>
+        <v>2.140537009386888</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.100000111433458</v>
       </c>
       <c r="E28" t="n">
-        <v>6.327447280645747</v>
+        <v>6.332642584970286</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.3123560693798</v>
+        <v>-5.249156393815505</v>
       </c>
       <c r="G28" t="n">
-        <v>2.136648765072619</v>
+        <v>2.10630399156305</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.072146843002228</v>
       </c>
       <c r="E29" t="n">
-        <v>6.231787321704581</v>
+        <v>6.245497118676524</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.145238108911171</v>
+        <v>-5.095158132064064</v>
       </c>
       <c r="G29" t="n">
-        <v>2.050618843696629</v>
+        <v>2.029044729518697</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.031888808349355</v>
       </c>
       <c r="E30" t="n">
-        <v>6.0694618129535</v>
+        <v>6.10380888594389</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.939033991793818</v>
+        <v>-4.902761704187273</v>
       </c>
       <c r="G30" t="n">
-        <v>1.997137339235299</v>
+        <v>1.980989689318394</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9821965861470439</v>
       </c>
       <c r="E31" t="n">
-        <v>5.905623700924083</v>
+        <v>5.941766380386819</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.79890502127129</v>
+        <v>-4.770879166174717</v>
       </c>
       <c r="G31" t="n">
-        <v>1.893685033728</v>
+        <v>1.872595806488083</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9261781842727995</v>
       </c>
       <c r="E32" t="n">
-        <v>5.724765142489335</v>
+        <v>5.756481017680233</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.546051121192863</v>
+        <v>-4.521416120098671</v>
       </c>
       <c r="G32" t="n">
-        <v>1.827669049438821</v>
+        <v>1.801838298857864</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8662018799741426</v>
       </c>
       <c r="E33" t="n">
-        <v>5.466633293834668</v>
+        <v>5.490847144701566</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.389751323767713</v>
+        <v>-4.366405999944505</v>
       </c>
       <c r="G33" t="n">
-        <v>1.732041416293523</v>
+        <v>1.710287985436627</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8042194279725202</v>
       </c>
       <c r="E34" t="n">
-        <v>5.255991088912959</v>
+        <v>5.272881012293466</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.165180970271786</v>
+        <v>-4.16000548836924</v>
       </c>
       <c r="G34" t="n">
-        <v>1.58491940025174</v>
+        <v>1.559610741770079</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.742119299298434</v>
       </c>
       <c r="E35" t="n">
-        <v>4.994257048741418</v>
+        <v>5.015390800190739</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.028945428389279</v>
+        <v>-4.01837824770428</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518933302075721</v>
+        <v>1.499421329705874</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6815345550416032</v>
       </c>
       <c r="E36" t="n">
-        <v>4.696063170355232</v>
+        <v>4.733517179272977</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.863842340876287</v>
+        <v>-3.859943727910514</v>
       </c>
       <c r="G36" t="n">
-        <v>1.47446398553402</v>
+        <v>1.456740300588398</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6220242779394772</v>
       </c>
       <c r="E37" t="n">
-        <v>4.382390725034534</v>
+        <v>4.41705739645954</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.722037613294394</v>
+        <v>-3.721818041850764</v>
       </c>
       <c r="G37" t="n">
-        <v>1.378143482499937</v>
+        <v>1.364748404597196</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5630827084862482</v>
       </c>
       <c r="E38" t="n">
-        <v>4.107305521248978</v>
+        <v>4.128944287018646</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.624152663724451</v>
+        <v>-3.630359826451716</v>
       </c>
       <c r="G38" t="n">
-        <v>1.267000077258845</v>
+        <v>1.264342652870254</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5028992467619211</v>
       </c>
       <c r="E39" t="n">
-        <v>3.849318833715378</v>
+        <v>3.863791031533256</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.560284820058778</v>
+        <v>-3.583336467076133</v>
       </c>
       <c r="G39" t="n">
-        <v>1.178126095767179</v>
+        <v>1.177107528237009</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4415492972546347</v>
       </c>
       <c r="E40" t="n">
-        <v>3.510929962890141</v>
+        <v>3.527037967963057</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.480173568929951</v>
+        <v>-3.502281363700038</v>
       </c>
       <c r="G40" t="n">
-        <v>1.096311336188194</v>
+        <v>1.090723242947828</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3780517323424988</v>
       </c>
       <c r="E41" t="n">
-        <v>3.292446617748159</v>
+        <v>3.315107610572056</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.388356110252299</v>
+        <v>-3.415705868278697</v>
       </c>
       <c r="G41" t="n">
-        <v>1.033192475113568</v>
+        <v>1.031685361121323</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.313670037879869</v>
       </c>
       <c r="E42" t="n">
-        <v>2.994418637786048</v>
+        <v>3.021694290450221</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.303486258003483</v>
+        <v>-3.338893068169723</v>
       </c>
       <c r="G42" t="n">
-        <v>1.021888815211396</v>
+        <v>1.012201445102607</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2492205503326622</v>
       </c>
       <c r="E43" t="n">
-        <v>2.649596323662473</v>
+        <v>2.692543278195011</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.208994297158291</v>
+        <v>-3.244657883929441</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9275755611244904</v>
+        <v>0.9226059274503472</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1870922367271594</v>
       </c>
       <c r="E44" t="n">
-        <v>2.423879319294259</v>
+        <v>2.46675430318694</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.177439441026053</v>
+        <v>-3.206963566265058</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9159102182610069</v>
+        <v>0.9091663253382037</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1284752088285944</v>
       </c>
       <c r="E45" t="n">
-        <v>2.158491854268997</v>
+        <v>2.208254062443518</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.084181959630598</v>
+        <v>-3.117308581346815</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8447312554431551</v>
+        <v>0.8393694427738629</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.07449833237711871</v>
       </c>
       <c r="E46" t="n">
-        <v>2.012864143885247</v>
+        <v>2.060500778501301</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.002147018687308</v>
+        <v>-3.030123470209064</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8041123681337647</v>
+        <v>0.7978936169136415</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.02538403525857357</v>
       </c>
       <c r="E47" t="n">
-        <v>1.786004148168807</v>
+        <v>1.845664759006272</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.929059004151234</v>
+        <v>-2.94876432137561</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7326235656121248</v>
+        <v>0.7216882977987089</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.01890079884333927</v>
       </c>
       <c r="E48" t="n">
-        <v>1.663199669508969</v>
+        <v>1.712173860169132</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.856252772967819</v>
+        <v>-2.885922364288228</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6645466593562136</v>
+        <v>0.6516480568843457</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.0579049571501504</v>
       </c>
       <c r="E49" t="n">
-        <v>1.473962630737733</v>
+        <v>1.531633070406969</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.819973471273491</v>
+        <v>-2.847368058469629</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5843768558424186</v>
+        <v>0.5669983859998362</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.0924052527743934</v>
       </c>
       <c r="E50" t="n">
-        <v>1.381155880722395</v>
+        <v>1.435223518954081</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.737102329082378</v>
+        <v>-2.762753762984371</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5805489936751478</v>
+        <v>0.5528360278857463</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1230554874609404</v>
       </c>
       <c r="E51" t="n">
-        <v>1.291697595222404</v>
+        <v>1.343145624147456</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.665017024138879</v>
+        <v>-2.702188639783289</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4885308710948451</v>
+        <v>0.4610393065111031</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1516050159055291</v>
       </c>
       <c r="E52" t="n">
-        <v>1.244813602721458</v>
+        <v>1.288518688655193</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.581386530705216</v>
+        <v>-2.615217610803077</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4114789820805861</v>
+        <v>0.3854518370417163</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1790571506985284</v>
       </c>
       <c r="E53" t="n">
-        <v>1.217820343330619</v>
+        <v>1.242734383134424</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.534427517961029</v>
+        <v>-2.577622100288326</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4051461756939111</v>
+        <v>0.3754973216765112</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2069571664876229</v>
       </c>
       <c r="E54" t="n">
-        <v>1.139497989546694</v>
+        <v>1.158061535264198</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.476230106827083</v>
+        <v>-2.522664587789266</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3498708945222648</v>
+        <v>0.3209807818267396</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2355671567548014</v>
       </c>
       <c r="E55" t="n">
-        <v>1.135715261509502</v>
+        <v>1.127383135144447</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.455154297842054</v>
+        <v>-2.50046103547293</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3216584036986067</v>
+        <v>0.2893588344200598</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2657762986286439</v>
       </c>
       <c r="E56" t="n">
-        <v>1.117455456289019</v>
+        <v>1.111183641970019</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.419891123995188</v>
+        <v>-2.473433620524193</v>
       </c>
       <c r="G56" t="n">
-        <v>0.270736736317588</v>
+        <v>0.2480068224572182</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2976567884585929</v>
       </c>
       <c r="E57" t="n">
-        <v>1.022792717654337</v>
+        <v>0.9958915562856868</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.386005760957096</v>
+        <v>-2.439092036819893</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2371965883825356</v>
+        <v>0.2107424988699421</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3312003287474304</v>
       </c>
       <c r="E58" t="n">
-        <v>1.034351324399389</v>
+        <v>0.9975291933027554</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.415319158602284</v>
+        <v>-2.463741980970666</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2316072753008164</v>
+        <v>0.1983458611150378</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3656524330278692</v>
       </c>
       <c r="E59" t="n">
-        <v>1.020284723831549</v>
+        <v>0.9670118122416663</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.343626642574611</v>
+        <v>-2.403167099038756</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2261704423882842</v>
+        <v>0.1945777711740883</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4001183284693552</v>
       </c>
       <c r="E60" t="n">
-        <v>1.028184416436789</v>
+        <v>0.9560247011707268</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.361275307276993</v>
+        <v>-2.418762770743204</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2061010025198894</v>
+        <v>0.1697625385199168</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4342264628284294</v>
       </c>
       <c r="E61" t="n">
-        <v>1.144712201412213</v>
+        <v>1.047679920948364</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.389673823907059</v>
+        <v>-2.440292360711734</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2267394983796901</v>
+        <v>0.1862865094943752</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.467352350026611</v>
       </c>
       <c r="E62" t="n">
-        <v>1.177000792118578</v>
+        <v>1.058276682786185</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.376727037701728</v>
+        <v>-2.427321177679333</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1948937100846438</v>
+        <v>0.1481152338607747</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4992548327983503</v>
       </c>
       <c r="E63" t="n">
-        <v>1.248740272038362</v>
+        <v>1.109233115645778</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.386128355013122</v>
+        <v>-2.43791488991377</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1621842741113222</v>
+        <v>0.1143805212298396</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5286885306064473</v>
       </c>
       <c r="E64" t="n">
-        <v>1.349457083310445</v>
+        <v>1.179772271673722</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.452137630174858</v>
+        <v>-2.498702634161865</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1867268722229873</v>
+        <v>0.1396806408220258</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5553149650097777</v>
       </c>
       <c r="E65" t="n">
-        <v>1.402632407592048</v>
+        <v>1.211724186166522</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.587117955304617</v>
+        <v>-2.635663371729025</v>
       </c>
       <c r="G65" t="n">
-        <v>0.153994869184626</v>
+        <v>0.09881229595584547</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5786912360185664</v>
       </c>
       <c r="E66" t="n">
-        <v>1.453717533714435</v>
+        <v>1.238992519782574</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.672536126241829</v>
+        <v>-2.708148174715795</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1602197196115167</v>
+        <v>0.1026712640776304</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5992141473149145</v>
       </c>
       <c r="E67" t="n">
-        <v>1.509141025610531</v>
+        <v>1.272424711757842</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.72307659319988</v>
+        <v>-2.753370743293279</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1185066346080403</v>
+        <v>0.0624189390949656</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.616559090705479</v>
       </c>
       <c r="E68" t="n">
-        <v>1.557490047577026</v>
+        <v>1.297015493602971</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.822249085318437</v>
+        <v>-2.844575841611477</v>
       </c>
       <c r="G68" t="n">
-        <v>0.08035853596015623</v>
+        <v>0.02215075617470532</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6311575091890752</v>
       </c>
       <c r="E69" t="n">
-        <v>1.558898964340314</v>
+        <v>1.283289228772756</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.877481062122035</v>
+        <v>-2.879585898377492</v>
       </c>
       <c r="G69" t="n">
-        <v>0.11425853709449</v>
+        <v>0.05008390332841287</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6433287202563313</v>
       </c>
       <c r="E70" t="n">
-        <v>1.581249507539747</v>
+        <v>1.287611736608869</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.915283335746202</v>
+        <v>-2.926199696018639</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1151081565972001</v>
+        <v>0.04956974019791426</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6525154576310407</v>
       </c>
       <c r="E71" t="n">
-        <v>1.577360043384125</v>
+        <v>1.274990648044921</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.990171531159698</v>
+        <v>-2.989185594385734</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1119487674916451</v>
+        <v>0.04261176511757242</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6582239311163047</v>
       </c>
       <c r="E72" t="n">
-        <v>1.56593317950525</v>
+        <v>1.262334184081722</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.064191504489842</v>
+        <v>-3.062831686341032</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06806436487894563</v>
+        <v>-0.003348807478777488</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6594813951381788</v>
       </c>
       <c r="E73" t="n">
-        <v>1.606108654482644</v>
+        <v>1.303644111517868</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.13197839346396</v>
+        <v>-3.117765106973361</v>
       </c>
       <c r="G73" t="n">
-        <v>0.00623975548037873</v>
+        <v>-0.06366935248848367</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6557441613387106</v>
       </c>
       <c r="E74" t="n">
-        <v>1.581151920231467</v>
+        <v>1.28754037588969</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.179048716731653</v>
+        <v>-3.162298160225782</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.01547037100846839</v>
+        <v>-0.08546486787207552</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6462008844790982</v>
       </c>
       <c r="E75" t="n">
-        <v>1.553066292908573</v>
+        <v>1.278111612147841</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.193523049271899</v>
+        <v>-3.168656888241219</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.0001747802769805947</v>
+        <v>-0.07306213091040377</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6300856605369365</v>
       </c>
       <c r="E76" t="n">
-        <v>1.556911842775469</v>
+        <v>1.291957421430699</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.262714280604229</v>
+        <v>-3.225560962580121</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.01127899611785574</v>
+        <v>-0.0884406708539293</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6064131984556156</v>
       </c>
       <c r="E77" t="n">
-        <v>1.428793735179802</v>
+        <v>1.188687482205748</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.286556384818649</v>
+        <v>-3.24990777615455</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.01713545445599059</v>
+        <v>-0.1021931622732445</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5748656524895651</v>
       </c>
       <c r="E78" t="n">
-        <v>1.463920286795076</v>
+        <v>1.229505813576435</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.285731162143009</v>
+        <v>-3.231056652837959</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01442184135895393</v>
+        <v>-0.07398433097364683</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.535685764854042</v>
       </c>
       <c r="E79" t="n">
-        <v>1.486247043088116</v>
+        <v>1.239755530549186</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.241471963274448</v>
+        <v>-3.193468766331669</v>
       </c>
       <c r="G79" t="n">
-        <v>0.05376416469191066</v>
+        <v>-0.03798681263197645</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4891346782901658</v>
       </c>
       <c r="E80" t="n">
-        <v>1.516633291203704</v>
+        <v>1.285025672939457</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.191361795353842</v>
+        <v>-3.15125524141292</v>
       </c>
       <c r="G80" t="n">
-        <v>0.04497093829523391</v>
+        <v>-0.04407260114456857</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4359869140567133</v>
       </c>
       <c r="E81" t="n">
-        <v>1.644238455510226</v>
+        <v>1.418193923738598</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.077351457971696</v>
+        <v>-3.044722531527706</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01982329887223473</v>
+        <v>-0.0658729958935744</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3767525492484336</v>
       </c>
       <c r="E82" t="n">
-        <v>1.719398370585212</v>
+        <v>1.496708402535699</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.958374231558453</v>
+        <v>-2.930733236408908</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04082286777267036</v>
+        <v>-0.03997881356223561</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3139428035947547</v>
       </c>
       <c r="E83" t="n">
-        <v>1.895601404494343</v>
+        <v>1.673240183689596</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.821046931664567</v>
+        <v>-2.795152749333228</v>
       </c>
       <c r="G83" t="n">
-        <v>0.08844669405451222</v>
+        <v>0.001743420251392047</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.249277278912805</v>
       </c>
       <c r="E84" t="n">
-        <v>2.093679243475042</v>
+        <v>1.881472592017474</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.739038217310377</v>
+        <v>-2.711507617803323</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04833648058952969</v>
+        <v>-0.02947841919134104</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1860204353966766</v>
       </c>
       <c r="E85" t="n">
-        <v>2.23516986190841</v>
+        <v>2.048284067346037</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.522627992548661</v>
+        <v>-2.502874491590822</v>
       </c>
       <c r="G85" t="n">
-        <v>0.09756378833054219</v>
+        <v>0.01359112939722307</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1260986131933723</v>
       </c>
       <c r="E86" t="n">
-        <v>2.391194890068684</v>
+        <v>2.214621634308768</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.334403422100827</v>
+        <v>-2.319881210787456</v>
       </c>
       <c r="G86" t="n">
-        <v>0.09683249343912127</v>
+        <v>0.02202206291191148</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.07161497561801491</v>
       </c>
       <c r="E87" t="n">
-        <v>2.50304824297751</v>
+        <v>2.33451252189578</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.068937887228941</v>
+        <v>-2.055395818443104</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1121530909183557</v>
+        <v>0.03778363304043479</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.02364448850997312</v>
       </c>
       <c r="E88" t="n">
-        <v>2.597737208201293</v>
+        <v>2.439771412447606</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.764101972672969</v>
+        <v>-1.755027572844311</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1218520495200034</v>
+        <v>0.05423319369232991</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.01682577862256397</v>
       </c>
       <c r="E89" t="n">
-        <v>2.629966636602014</v>
+        <v>2.483396598772688</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.555742090923651</v>
+        <v>-1.557923167263702</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06750201801498391</v>
+        <v>0.006765507103735556</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.04943689906783493</v>
       </c>
       <c r="E90" t="n">
-        <v>2.685480396758269</v>
+        <v>2.551242955012788</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.327210912552921</v>
+        <v>-1.338642045876533</v>
       </c>
       <c r="G90" t="n">
-        <v>0.06562773177533714</v>
+        <v>0.003452417987640106</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.07369986368838968</v>
       </c>
       <c r="E91" t="n">
-        <v>2.691223409850528</v>
+        <v>2.563330362984582</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9637652804855209</v>
+        <v>-0.9874375217914665</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06681585725364235</v>
+        <v>0.01842780036383517</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08880196210990726</v>
       </c>
       <c r="E92" t="n">
-        <v>2.625452003752724</v>
+        <v>2.49495337575571</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7540690625334479</v>
+        <v>-0.7872749739376423</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05662103314179856</v>
+        <v>0.005553594719037165</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.09379433167030921</v>
       </c>
       <c r="E93" t="n">
-        <v>2.54913262947124</v>
+        <v>2.428445185480395</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4252028832342787</v>
+        <v>-0.4925741112671925</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03024630932336684</v>
+        <v>-0.06234521469926364</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08849717753655456</v>
       </c>
       <c r="E94" t="n">
-        <v>2.497347924332623</v>
+        <v>2.377403363726057</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1550257111345148</v>
+        <v>-0.2334072272240845</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.08012928179188351</v>
+        <v>-0.09781881117960743</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.07407360617633962</v>
       </c>
       <c r="E95" t="n">
-        <v>2.344857996414781</v>
+        <v>2.235011282532455</v>
       </c>
       <c r="F95" t="n">
-        <v>0.05967063652553885</v>
+        <v>-0.02501136015483826</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1313431011770644</v>
+        <v>-0.1417703050667492</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.05361906971099192</v>
       </c>
       <c r="E96" t="n">
-        <v>2.184656231460135</v>
+        <v>2.084878088109567</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2321982884365852</v>
+        <v>0.1399355876649065</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1867238986257881</v>
+        <v>-0.1905163853938075</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.03236610949281146</v>
       </c>
       <c r="E97" t="n">
-        <v>2.00821227888369</v>
+        <v>1.919379771998042</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3611873627586483</v>
+        <v>0.2740931298017326</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2072105242370786</v>
+        <v>-0.2020097306264479</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.01378407499638209</v>
       </c>
       <c r="E98" t="n">
-        <v>1.790967072715506</v>
+        <v>1.727532882651001</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4589363000176758</v>
+        <v>0.3751399081599369</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3466426603864219</v>
+        <v>-0.3231186298049261</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.000193872163790547</v>
       </c>
       <c r="E99" t="n">
-        <v>1.624045201744451</v>
+        <v>1.572952146653266</v>
       </c>
       <c r="F99" t="n">
-        <v>0.512158588191388</v>
+        <v>0.430524365132721</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3311958093271006</v>
+        <v>-0.3135947184375051</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.01100539728520391</v>
       </c>
       <c r="E100" t="n">
-        <v>1.439836958953003</v>
+        <v>1.40356985567221</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5325830018936503</v>
+        <v>0.4634856983455395</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.4334264437188728</v>
+        <v>-0.3960096399624097</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.01937745576651438</v>
       </c>
       <c r="E101" t="n">
-        <v>1.295646221683671</v>
+        <v>1.285981418639921</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5294065350091464</v>
+        <v>0.4818449206363328</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.436108264934534</v>
+        <v>-0.3981529012205024</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.03081345670352722</v>
       </c>
       <c r="E102" t="n">
-        <v>1.07652123998975</v>
+        <v>1.100683857519801</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4836490659981536</v>
+        <v>0.4485097060486677</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4719441542968662</v>
+        <v>-0.4359570046067005</v>
       </c>
     </row>
   </sheetData>
